--- a/PicoGreen_Plots/20240123_PicoGreen_DIPLibrary_serum_pDNA2.xlsx
+++ b/PicoGreen_Plots/20240123_PicoGreen_DIPLibrary_serum_pDNA2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB9CA65-B3A0-4448-9794-11DE84F5D477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21720F8-F014-F341-B831-6DA3D7A52354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="1880" windowWidth="22840" windowHeight="16900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="171">
   <si>
     <t>Software Version</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>G3</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3227,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3253,7 +3256,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>33.266561739876956</v>
@@ -3264,7 +3267,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>88.946916583202167</v>
